--- a/src/main/java/com/coffee/ImportExcel/excel_ template/Timekeeping_T4.xlsx
+++ b/src/main/java/com/coffee/ImportExcel/excel_ template/Timekeeping_T4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vscode\cafe_application\src\main\java\com\coffee\ImportExcel\excel_ template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB725B9-2655-4BFA-8E51-4F18ECA97A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611E1A46-EDD4-41CA-B61C-CEA45814E45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="3204" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="h:mm;@"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +93,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -144,7 +140,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -431,7 +426,7 @@
   <dimension ref="A1:F271"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E188" sqref="E1:F1048576"/>
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +434,6 @@
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -455,10 +449,10 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -478,8 +472,8 @@
       <c r="E2" s="4">
         <v>0.25694444444444442</v>
       </c>
-      <c r="F2" s="5">
-        <v>0.50694444444444442</v>
+      <c r="F2" s="4">
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -496,10 +490,10 @@
         <v>2</v>
       </c>
       <c r="E3" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -519,7 +513,7 @@
         <v>0.75</v>
       </c>
       <c r="F4" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -536,10 +530,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="F5" s="4">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -556,10 +550,10 @@
         <v>2</v>
       </c>
       <c r="E6" s="4">
-        <v>0.5</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F6" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -576,10 +570,10 @@
         <v>3</v>
       </c>
       <c r="E7" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F7" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -599,7 +593,7 @@
         <v>0.25277777777777777</v>
       </c>
       <c r="F8" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -616,10 +610,10 @@
         <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F9" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -636,10 +630,10 @@
         <v>3</v>
       </c>
       <c r="E10" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="F10" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -659,7 +653,7 @@
         <v>0.25</v>
       </c>
       <c r="F11" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -676,10 +670,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F12" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -696,7 +690,7 @@
         <v>3</v>
       </c>
       <c r="E13" s="4">
-        <v>0.75</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F13" s="4">
         <v>0.97916666666666663</v>
@@ -716,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="F14" s="4">
         <v>0.48958333333333331</v>
@@ -736,10 +730,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F15" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -756,10 +750,10 @@
         <v>3</v>
       </c>
       <c r="E16" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F16" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -776,10 +770,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="F17" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -796,10 +790,10 @@
         <v>2</v>
       </c>
       <c r="E18" s="4">
-        <v>0.5</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F18" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -816,10 +810,10 @@
         <v>3</v>
       </c>
       <c r="E19" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F19" s="4">
-        <v>0.9375</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -836,10 +830,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="F20" s="4">
-        <v>0.5</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -856,10 +850,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F21" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -876,10 +870,10 @@
         <v>3</v>
       </c>
       <c r="E22" s="4">
-        <v>0.75</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="F22" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -896,10 +890,10 @@
         <v>1</v>
       </c>
       <c r="E23" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F23" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -916,10 +910,10 @@
         <v>2</v>
       </c>
       <c r="E24" s="4">
-        <v>0.5</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F24" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -936,10 +930,10 @@
         <v>3</v>
       </c>
       <c r="E25" s="4">
-        <v>0.75</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F25" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
@@ -956,10 +950,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F26" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -976,10 +970,10 @@
         <v>2</v>
       </c>
       <c r="E27" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F27" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -996,10 +990,10 @@
         <v>3</v>
       </c>
       <c r="E28" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F28" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1016,10 +1010,10 @@
         <v>1</v>
       </c>
       <c r="E29" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="F29" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -1039,7 +1033,7 @@
         <v>0.50277777777777777</v>
       </c>
       <c r="F30" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -1056,10 +1050,10 @@
         <v>3</v>
       </c>
       <c r="E31" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75</v>
       </c>
       <c r="F31" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -1079,7 +1073,7 @@
         <v>0.25694444444444442</v>
       </c>
       <c r="F32" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -1096,10 +1090,10 @@
         <v>2</v>
       </c>
       <c r="E33" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F33" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
@@ -1119,7 +1113,7 @@
         <v>0.76041666666666663</v>
       </c>
       <c r="F34" s="4">
-        <v>0.9375</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -1136,10 +1130,10 @@
         <v>1</v>
       </c>
       <c r="E35" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F35" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -1159,7 +1153,7 @@
         <v>0.50277777777777777</v>
       </c>
       <c r="F36" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -1176,10 +1170,10 @@
         <v>3</v>
       </c>
       <c r="E37" s="4">
-        <v>0.75</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F37" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -1196,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="4">
-        <v>0.25277777777777777</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F38" s="4">
         <v>0.5</v>
@@ -1216,10 +1210,10 @@
         <v>2</v>
       </c>
       <c r="E39" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F39" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -1236,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F40" s="4">
         <v>0.97916666666666663</v>
@@ -1256,10 +1250,10 @@
         <v>1</v>
       </c>
       <c r="E41" s="4">
-        <v>0.25</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F41" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -1279,7 +1273,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="F42" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
@@ -1299,7 +1293,7 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="F43" s="4">
-        <v>0.9375</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1316,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="E44" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="F44" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
@@ -1336,10 +1330,10 @@
         <v>2</v>
       </c>
       <c r="E45" s="4">
-        <v>0.5</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F45" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
@@ -1356,10 +1350,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F46" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -1376,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="E47" s="4">
-        <v>0.25277777777777777</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="F47" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1396,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="E48" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F48" s="4">
         <v>0.73958333333333337</v>
@@ -1416,10 +1410,10 @@
         <v>3</v>
       </c>
       <c r="E49" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F49" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -1439,7 +1433,7 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="F50" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
@@ -1456,10 +1450,10 @@
         <v>2</v>
       </c>
       <c r="E51" s="4">
-        <v>0.50277777777777777</v>
+        <v>0.5</v>
       </c>
       <c r="F51" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
@@ -1476,10 +1470,10 @@
         <v>3</v>
       </c>
       <c r="E52" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75</v>
       </c>
       <c r="F52" s="4">
-        <v>0.97916666666666663</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
@@ -1496,10 +1490,10 @@
         <v>1</v>
       </c>
       <c r="E53" s="4">
-        <v>0.25277777777777777</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F53" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -1516,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F54" s="4">
         <v>0.72916666666666663</v>
@@ -1536,10 +1530,10 @@
         <v>3</v>
       </c>
       <c r="E55" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F55" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
@@ -1556,10 +1550,10 @@
         <v>1</v>
       </c>
       <c r="E56" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F56" s="4">
-        <v>0.5</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
@@ -1576,10 +1570,10 @@
         <v>2</v>
       </c>
       <c r="E57" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="F57" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
@@ -1596,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="F58" s="4">
         <v>0.97916666666666663</v>
@@ -1616,10 +1610,10 @@
         <v>1</v>
       </c>
       <c r="E59" s="4">
-        <v>0.25277777777777777</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F59" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -1639,7 +1633,7 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="F60" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
@@ -1656,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F61" s="4">
         <v>0.94791666666666663</v>
@@ -1676,10 +1670,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F62" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
@@ -1696,10 +1690,10 @@
         <v>2</v>
       </c>
       <c r="E63" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F63" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -1716,10 +1710,10 @@
         <v>3</v>
       </c>
       <c r="E64" s="4">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F64" s="4">
-        <v>0.97916666666666663</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1736,10 +1730,10 @@
         <v>1</v>
       </c>
       <c r="E65" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25</v>
       </c>
       <c r="F65" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1756,7 +1750,7 @@
         <v>2</v>
       </c>
       <c r="E66" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F66" s="4">
         <v>0.77083333333333337</v>
@@ -1776,10 +1770,10 @@
         <v>3</v>
       </c>
       <c r="E67" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="F67" s="4">
-        <v>0.97916666666666663</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1796,10 +1790,10 @@
         <v>1</v>
       </c>
       <c r="E68" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25</v>
       </c>
       <c r="F68" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1816,10 +1810,10 @@
         <v>2</v>
       </c>
       <c r="E69" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F69" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1836,10 +1830,10 @@
         <v>3</v>
       </c>
       <c r="E70" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75</v>
       </c>
       <c r="F70" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1856,10 +1850,10 @@
         <v>1</v>
       </c>
       <c r="E71" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="F71" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1876,10 +1870,10 @@
         <v>2</v>
       </c>
       <c r="E72" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F72" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1896,10 +1890,10 @@
         <v>3</v>
       </c>
       <c r="E73" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F73" s="4">
-        <v>0.94791666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1916,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="E74" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F74" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1936,10 +1930,10 @@
         <v>2</v>
       </c>
       <c r="E75" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="F75" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1956,10 +1950,10 @@
         <v>3</v>
       </c>
       <c r="E76" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F76" s="4">
-        <v>0.94791666666666663</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1976,10 +1970,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F77" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
@@ -1999,7 +1993,7 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="F78" s="4">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -2016,10 +2010,10 @@
         <v>3</v>
       </c>
       <c r="E79" s="4">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F79" s="4">
-        <v>0.9375</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -2036,10 +2030,10 @@
         <v>1</v>
       </c>
       <c r="E80" s="4">
-        <v>0.25277777777777777</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F80" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -2056,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="E81" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F81" s="4">
         <v>0.72916666666666663</v>
@@ -2076,10 +2070,10 @@
         <v>3</v>
       </c>
       <c r="E82" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F82" s="4">
-        <v>0.9375</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
@@ -2096,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="E83" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F83" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -2116,10 +2110,10 @@
         <v>2</v>
       </c>
       <c r="E84" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="F84" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
@@ -2136,10 +2130,10 @@
         <v>3</v>
       </c>
       <c r="E85" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F85" s="4">
-        <v>0.9375</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
@@ -2159,7 +2153,7 @@
         <v>0.25</v>
       </c>
       <c r="F86" s="4">
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
@@ -2176,10 +2170,10 @@
         <v>2</v>
       </c>
       <c r="E87" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F87" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
@@ -2196,10 +2190,10 @@
         <v>3</v>
       </c>
       <c r="E88" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F88" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
@@ -2216,10 +2210,10 @@
         <v>1</v>
       </c>
       <c r="E89" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="F89" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
@@ -2236,10 +2230,10 @@
         <v>2</v>
       </c>
       <c r="E90" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F90" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -2256,10 +2250,10 @@
         <v>3</v>
       </c>
       <c r="E91" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F91" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
@@ -2276,10 +2270,10 @@
         <v>1</v>
       </c>
       <c r="E92" s="4">
-        <v>0.25277777777777777</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F92" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -2299,7 +2293,7 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="F93" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
@@ -2316,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F94" s="4">
         <v>0.94791666666666663</v>
@@ -2336,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="E95" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="F95" s="4">
         <v>0.52083333333333337</v>
@@ -2356,10 +2350,10 @@
         <v>2</v>
       </c>
       <c r="E96" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F96" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
@@ -2376,10 +2370,10 @@
         <v>3</v>
       </c>
       <c r="E97" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F97" s="4">
-        <v>0.94791666666666663</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
@@ -2396,10 +2390,10 @@
         <v>1</v>
       </c>
       <c r="E98" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F98" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
@@ -2416,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="E99" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F99" s="4">
         <v>0.77083333333333337</v>
@@ -2439,7 +2433,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="F100" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
@@ -2456,10 +2450,10 @@
         <v>1</v>
       </c>
       <c r="E101" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F101" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -2476,10 +2470,10 @@
         <v>2</v>
       </c>
       <c r="E102" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="F102" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
@@ -2496,10 +2490,10 @@
         <v>3</v>
       </c>
       <c r="E103" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F103" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
@@ -2516,10 +2510,10 @@
         <v>1</v>
       </c>
       <c r="E104" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F104" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
@@ -2536,10 +2530,10 @@
         <v>2</v>
       </c>
       <c r="E105" s="4">
-        <v>0.50277777777777777</v>
+        <v>0.5</v>
       </c>
       <c r="F105" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
@@ -2556,10 +2550,10 @@
         <v>3</v>
       </c>
       <c r="E106" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F106" s="4">
-        <v>0.9375</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
@@ -2576,10 +2570,10 @@
         <v>1</v>
       </c>
       <c r="E107" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="F107" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
@@ -2596,10 +2590,10 @@
         <v>2</v>
       </c>
       <c r="E108" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F108" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
@@ -2616,10 +2610,10 @@
         <v>3</v>
       </c>
       <c r="E109" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F109" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -2636,10 +2630,10 @@
         <v>1</v>
       </c>
       <c r="E110" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F110" s="4">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
@@ -2656,7 +2650,7 @@
         <v>2</v>
       </c>
       <c r="E111" s="4">
-        <v>0.50277777777777777</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F111" s="4">
         <v>0.75</v>
@@ -2676,10 +2670,10 @@
         <v>3</v>
       </c>
       <c r="E112" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F112" s="4">
-        <v>0.94791666666666663</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
@@ -2696,10 +2690,10 @@
         <v>1</v>
       </c>
       <c r="E113" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F113" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
@@ -2719,7 +2713,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="F114" s="4">
-        <v>0.75</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -2736,10 +2730,10 @@
         <v>3</v>
       </c>
       <c r="E115" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F115" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
@@ -2756,10 +2750,10 @@
         <v>1</v>
       </c>
       <c r="E116" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="F116" s="4">
-        <v>0.5</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
@@ -2776,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="E117" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F117" s="4">
         <v>0.72916666666666663</v>
@@ -2796,7 +2790,7 @@
         <v>3</v>
       </c>
       <c r="E118" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F118" s="4">
         <v>0.94791666666666663</v>
@@ -2839,7 +2833,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="F120" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
@@ -2856,10 +2850,10 @@
         <v>3</v>
       </c>
       <c r="E121" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F121" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
@@ -2879,7 +2873,7 @@
         <v>0.25277777777777777</v>
       </c>
       <c r="F122" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
@@ -2896,10 +2890,10 @@
         <v>2</v>
       </c>
       <c r="E123" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F123" s="4">
-        <v>0.75</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
@@ -2916,10 +2910,10 @@
         <v>3</v>
       </c>
       <c r="E124" s="4">
-        <v>0.75</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F124" s="4">
-        <v>0.97916666666666663</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
@@ -2936,10 +2930,10 @@
         <v>1</v>
       </c>
       <c r="E125" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="F125" s="4">
-        <v>0.5</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
@@ -2956,10 +2950,10 @@
         <v>2</v>
       </c>
       <c r="E126" s="4">
-        <v>0.50277777777777777</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F126" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
@@ -2976,10 +2970,10 @@
         <v>3</v>
       </c>
       <c r="E127" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F127" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -2996,10 +2990,10 @@
         <v>1</v>
       </c>
       <c r="E128" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="F128" s="4">
-        <v>0.5</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -3016,10 +3010,10 @@
         <v>2</v>
       </c>
       <c r="E129" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F129" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -3036,7 +3030,7 @@
         <v>3</v>
       </c>
       <c r="E130" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75</v>
       </c>
       <c r="F130" s="4">
         <v>0.95833333333333337</v>
@@ -3056,10 +3050,10 @@
         <v>1</v>
       </c>
       <c r="E131" s="4">
-        <v>0.25</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F131" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -3076,10 +3070,10 @@
         <v>2</v>
       </c>
       <c r="E132" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F132" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -3096,10 +3090,10 @@
         <v>3</v>
       </c>
       <c r="E133" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F133" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -3116,10 +3110,10 @@
         <v>1</v>
       </c>
       <c r="E134" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="F134" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -3136,10 +3130,10 @@
         <v>2</v>
       </c>
       <c r="E135" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="F135" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -3156,10 +3150,10 @@
         <v>3</v>
       </c>
       <c r="E136" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F136" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
@@ -3176,10 +3170,10 @@
         <v>1</v>
       </c>
       <c r="E137" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25</v>
       </c>
       <c r="F137" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -3196,10 +3190,10 @@
         <v>2</v>
       </c>
       <c r="E138" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F138" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
@@ -3219,7 +3213,7 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="F139" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -3239,7 +3233,7 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="F140" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
@@ -3256,10 +3250,10 @@
         <v>2</v>
       </c>
       <c r="E141" s="4">
-        <v>0.50277777777777777</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F141" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
@@ -3276,10 +3270,10 @@
         <v>3</v>
       </c>
       <c r="E142" s="4">
-        <v>0.75</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F142" s="4">
-        <v>0.97916666666666663</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
@@ -3299,7 +3293,7 @@
         <v>0.25</v>
       </c>
       <c r="F143" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
@@ -3316,10 +3310,10 @@
         <v>2</v>
       </c>
       <c r="E144" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F144" s="4">
-        <v>0.75</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -3336,10 +3330,10 @@
         <v>3</v>
       </c>
       <c r="E145" s="4">
-        <v>0.75</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F145" s="4">
-        <v>0.9375</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -3359,7 +3353,7 @@
         <v>0.25694444444444442</v>
       </c>
       <c r="F146" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -3376,10 +3370,10 @@
         <v>2</v>
       </c>
       <c r="E147" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F147" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
@@ -3396,7 +3390,7 @@
         <v>3</v>
       </c>
       <c r="E148" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.75</v>
       </c>
       <c r="F148" s="4">
         <v>0.96180555555555558</v>
@@ -3416,10 +3410,10 @@
         <v>1</v>
       </c>
       <c r="E149" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F149" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
@@ -3436,10 +3430,10 @@
         <v>2</v>
       </c>
       <c r="E150" s="4">
-        <v>0.5</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F150" s="4">
-        <v>0.75</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -3456,10 +3450,10 @@
         <v>3</v>
       </c>
       <c r="E151" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.75</v>
       </c>
       <c r="F151" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
@@ -3476,10 +3470,10 @@
         <v>1</v>
       </c>
       <c r="E152" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="F152" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -3496,10 +3490,10 @@
         <v>2</v>
       </c>
       <c r="E153" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F153" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -3536,10 +3530,10 @@
         <v>1</v>
       </c>
       <c r="E155" s="4">
-        <v>0.25</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="F155" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -3559,7 +3553,7 @@
         <v>0.50277777777777777</v>
       </c>
       <c r="F156" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -3576,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="E157" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F157" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -3599,7 +3593,7 @@
         <v>0.25347222222222221</v>
       </c>
       <c r="F158" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -3616,10 +3610,10 @@
         <v>2</v>
       </c>
       <c r="E159" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F159" s="4">
-        <v>0.75</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -3636,10 +3630,10 @@
         <v>3</v>
       </c>
       <c r="E160" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F160" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -3656,10 +3650,10 @@
         <v>1</v>
       </c>
       <c r="E161" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="F161" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -3676,10 +3670,10 @@
         <v>2</v>
       </c>
       <c r="E162" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F162" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -3696,7 +3690,7 @@
         <v>3</v>
       </c>
       <c r="E163" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F163" s="4">
         <v>0.94791666666666663</v>
@@ -3716,10 +3710,10 @@
         <v>1</v>
       </c>
       <c r="E164" s="4">
-        <v>0.25</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="F164" s="4">
-        <v>0.5</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -3739,7 +3733,7 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="F165" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -3756,10 +3750,10 @@
         <v>3</v>
       </c>
       <c r="E166" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F166" s="4">
-        <v>0.9375</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -3776,10 +3770,10 @@
         <v>1</v>
       </c>
       <c r="E167" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25</v>
       </c>
       <c r="F167" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
@@ -3796,10 +3790,10 @@
         <v>2</v>
       </c>
       <c r="E168" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F168" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -3816,10 +3810,10 @@
         <v>3</v>
       </c>
       <c r="E169" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F169" s="4">
-        <v>0.94791666666666663</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -3836,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="E170" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="F170" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -3856,10 +3850,10 @@
         <v>2</v>
       </c>
       <c r="E171" s="4">
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F171" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -3876,10 +3870,10 @@
         <v>3</v>
       </c>
       <c r="E172" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F172" s="4">
-        <v>0.9375</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -3896,10 +3890,10 @@
         <v>1</v>
       </c>
       <c r="E173" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25</v>
       </c>
       <c r="F173" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -3916,10 +3910,10 @@
         <v>2</v>
       </c>
       <c r="E174" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F174" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -3936,10 +3930,10 @@
         <v>3</v>
       </c>
       <c r="E175" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F175" s="4">
-        <v>0.94791666666666663</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -3956,7 +3950,7 @@
         <v>1</v>
       </c>
       <c r="E176" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="F176" s="4">
         <v>0.50694444444444442</v>
@@ -3979,7 +3973,7 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="F177" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
@@ -3999,7 +3993,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="F178" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
@@ -4016,7 +4010,7 @@
         <v>1</v>
       </c>
       <c r="E179" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="F179" s="4">
         <v>0.48958333333333331</v>
@@ -4036,10 +4030,10 @@
         <v>2</v>
       </c>
       <c r="E180" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F180" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
@@ -4059,7 +4053,7 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="F181" s="4">
-        <v>0.94791666666666663</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
@@ -4076,10 +4070,10 @@
         <v>1</v>
       </c>
       <c r="E182" s="4">
-        <v>0.25277777777777777</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F182" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
@@ -4096,10 +4090,10 @@
         <v>2</v>
       </c>
       <c r="E183" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F183" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
@@ -4119,7 +4113,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="F184" s="4">
-        <v>0.97916666666666663</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
@@ -4136,10 +4130,10 @@
         <v>1</v>
       </c>
       <c r="E185" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F185" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
@@ -4156,10 +4150,10 @@
         <v>2</v>
       </c>
       <c r="E186" s="4">
-        <v>0.5</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F186" s="4">
-        <v>0.75</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
@@ -4176,10 +4170,10 @@
         <v>3</v>
       </c>
       <c r="E187" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F187" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
@@ -4196,7 +4190,7 @@
         <v>1</v>
       </c>
       <c r="E188" s="4">
-        <v>0.25277777777777777</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="F188" s="4">
         <v>0.52083333333333337</v>
@@ -4219,7 +4213,7 @@
         <v>0.5</v>
       </c>
       <c r="F189" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
@@ -4236,10 +4230,10 @@
         <v>3</v>
       </c>
       <c r="E190" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F190" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
@@ -4256,10 +4250,10 @@
         <v>1</v>
       </c>
       <c r="E191" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F191" s="4">
-        <v>0.5</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
@@ -4276,10 +4270,10 @@
         <v>2</v>
       </c>
       <c r="E192" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F192" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
@@ -4296,10 +4290,10 @@
         <v>3</v>
       </c>
       <c r="E193" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F193" s="4">
-        <v>0.9375</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
@@ -4316,7 +4310,7 @@
         <v>1</v>
       </c>
       <c r="E194" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F194" s="4">
         <v>0.50347222222222221</v>
@@ -4336,10 +4330,10 @@
         <v>2</v>
       </c>
       <c r="E195" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F195" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
@@ -4356,7 +4350,7 @@
         <v>3</v>
       </c>
       <c r="E196" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="F196" s="4">
         <v>0.94791666666666663</v>
@@ -4376,10 +4370,10 @@
         <v>1</v>
       </c>
       <c r="E197" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F197" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
@@ -4399,7 +4393,7 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="F198" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
@@ -4416,10 +4410,10 @@
         <v>3</v>
       </c>
       <c r="E199" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F199" s="4">
-        <v>0.9375</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
@@ -4436,10 +4430,10 @@
         <v>1</v>
       </c>
       <c r="E200" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25</v>
       </c>
       <c r="F200" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
@@ -4456,10 +4450,10 @@
         <v>2</v>
       </c>
       <c r="E201" s="4">
-        <v>0.50277777777777777</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F201" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
@@ -4476,10 +4470,10 @@
         <v>3</v>
       </c>
       <c r="E202" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="F202" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
@@ -4499,7 +4493,7 @@
         <v>0.26041666666666669</v>
       </c>
       <c r="F203" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
@@ -4516,7 +4510,7 @@
         <v>2</v>
       </c>
       <c r="E204" s="4">
-        <v>0.5</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F204" s="4">
         <v>0.75694444444444442</v>
@@ -4536,10 +4530,10 @@
         <v>3</v>
       </c>
       <c r="E205" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="F205" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -4576,10 +4570,10 @@
         <v>2</v>
       </c>
       <c r="E207" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="F207" s="4">
-        <v>0.75</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -4596,10 +4590,10 @@
         <v>3</v>
       </c>
       <c r="E208" s="4">
-        <v>0.75</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F208" s="4">
-        <v>0.97916666666666663</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -4616,10 +4610,10 @@
         <v>1</v>
       </c>
       <c r="E209" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F209" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -4636,10 +4630,10 @@
         <v>2</v>
       </c>
       <c r="E210" s="4">
-        <v>0.5</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F210" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -4656,10 +4650,10 @@
         <v>3</v>
       </c>
       <c r="E211" s="4">
-        <v>0.75</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F211" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -4676,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="E212" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="F212" s="4">
         <v>0.48958333333333331</v>
@@ -4696,10 +4690,10 @@
         <v>2</v>
       </c>
       <c r="E213" s="4">
-        <v>0.5</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F213" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -4716,10 +4710,10 @@
         <v>3</v>
       </c>
       <c r="E214" s="4">
-        <v>0.75</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F214" s="4">
-        <v>0.94791666666666663</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -4736,10 +4730,10 @@
         <v>1</v>
       </c>
       <c r="E215" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.25</v>
       </c>
       <c r="F215" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -4756,10 +4750,10 @@
         <v>2</v>
       </c>
       <c r="E216" s="4">
-        <v>0.50277777777777777</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F216" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -4776,7 +4770,7 @@
         <v>3</v>
       </c>
       <c r="E217" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75</v>
       </c>
       <c r="F217" s="4">
         <v>0.96180555555555558</v>
@@ -4796,10 +4790,10 @@
         <v>1</v>
       </c>
       <c r="E218" s="4">
-        <v>0.26041666666666669</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F218" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -4816,7 +4810,7 @@
         <v>2</v>
       </c>
       <c r="E219" s="4">
-        <v>0.50277777777777777</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="F219" s="4">
         <v>0.72916666666666663</v>
@@ -4839,7 +4833,7 @@
         <v>0.75277777777777777</v>
       </c>
       <c r="F220" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -4856,10 +4850,10 @@
         <v>1</v>
       </c>
       <c r="E221" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F221" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -4876,10 +4870,10 @@
         <v>2</v>
       </c>
       <c r="E222" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.5</v>
       </c>
       <c r="F222" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -4896,10 +4890,10 @@
         <v>3</v>
       </c>
       <c r="E223" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F223" s="4">
-        <v>0.97916666666666663</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -4916,10 +4910,10 @@
         <v>1</v>
       </c>
       <c r="E224" s="4">
-        <v>0.25</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F224" s="4">
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.3">
@@ -4936,10 +4930,10 @@
         <v>2</v>
       </c>
       <c r="E225" s="4">
-        <v>0.5</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F225" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.3">
@@ -4956,10 +4950,10 @@
         <v>3</v>
       </c>
       <c r="E226" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.75</v>
       </c>
       <c r="F226" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -4976,10 +4970,10 @@
         <v>1</v>
       </c>
       <c r="E227" s="4">
-        <v>0.25277777777777777</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F227" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -4996,7 +4990,7 @@
         <v>2</v>
       </c>
       <c r="E228" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F228" s="4">
         <v>0.75694444444444442</v>
@@ -5016,10 +5010,10 @@
         <v>3</v>
       </c>
       <c r="E229" s="4">
-        <v>0.75</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F229" s="4">
-        <v>0.94791666666666663</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -5036,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="E230" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F230" s="4">
         <v>0.50694444444444442</v>
@@ -5056,10 +5050,10 @@
         <v>2</v>
       </c>
       <c r="E231" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F231" s="4">
-        <v>0.75</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
@@ -5079,7 +5073,7 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="F232" s="4">
-        <v>0.9375</v>
+        <v>0.94791666666666663</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -5096,10 +5090,10 @@
         <v>1</v>
       </c>
       <c r="E233" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25</v>
       </c>
       <c r="F233" s="4">
-        <v>0.5</v>
+        <v>0.50347222222222221</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -5116,10 +5110,10 @@
         <v>2</v>
       </c>
       <c r="E234" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="F234" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.3">
@@ -5136,10 +5130,10 @@
         <v>3</v>
       </c>
       <c r="E235" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F235" s="4">
-        <v>0.94791666666666663</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.3">
@@ -5156,10 +5150,10 @@
         <v>1</v>
       </c>
       <c r="E236" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.25</v>
       </c>
       <c r="F236" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.47916666666666669</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
@@ -5176,10 +5170,10 @@
         <v>2</v>
       </c>
       <c r="E237" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.5</v>
       </c>
       <c r="F237" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
@@ -5196,10 +5190,10 @@
         <v>3</v>
       </c>
       <c r="E238" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75277777777777777</v>
       </c>
       <c r="F238" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
@@ -5216,7 +5210,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F239" s="4">
         <v>0.50347222222222221</v>
@@ -5236,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="E240" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F240" s="4">
         <v>0.75694444444444442</v>
@@ -5256,10 +5250,10 @@
         <v>3</v>
       </c>
       <c r="E241" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F241" s="4">
-        <v>0.9375</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.3">
@@ -5276,10 +5270,10 @@
         <v>1</v>
       </c>
       <c r="E242" s="4">
-        <v>0.25277777777777777</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="F242" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
@@ -5296,10 +5290,10 @@
         <v>2</v>
       </c>
       <c r="E243" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F243" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
@@ -5316,10 +5310,10 @@
         <v>3</v>
       </c>
       <c r="E244" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="F244" s="4">
-        <v>0.97916666666666663</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -5336,7 +5330,7 @@
         <v>1</v>
       </c>
       <c r="E245" s="4">
-        <v>0.25347222222222221</v>
+        <v>0.25694444444444442</v>
       </c>
       <c r="F245" s="4">
         <v>0.50347222222222221</v>
@@ -5356,10 +5350,10 @@
         <v>2</v>
       </c>
       <c r="E246" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F246" s="4">
-        <v>0.72916666666666663</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -5376,10 +5370,10 @@
         <v>3</v>
       </c>
       <c r="E247" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F247" s="4">
-        <v>0.96527777777777779</v>
+        <v>0.97916666666666663</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
@@ -5396,10 +5390,10 @@
         <v>1</v>
       </c>
       <c r="E248" s="4">
-        <v>0.25</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="F248" s="4">
-        <v>0.50694444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
@@ -5419,7 +5413,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="F249" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.3">
@@ -5436,10 +5430,10 @@
         <v>3</v>
       </c>
       <c r="E250" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F250" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.96180555555555558</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.3">
@@ -5456,10 +5450,10 @@
         <v>1</v>
       </c>
       <c r="E251" s="4">
-        <v>0.25</v>
+        <v>0.26041666666666669</v>
       </c>
       <c r="F251" s="4">
-        <v>0.52083333333333337</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.3">
@@ -5476,10 +5470,10 @@
         <v>2</v>
       </c>
       <c r="E252" s="4">
-        <v>0.5</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F252" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.73958333333333337</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.3">
@@ -5496,10 +5490,10 @@
         <v>3</v>
       </c>
       <c r="E253" s="4">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="F253" s="4">
-        <v>0.95833333333333337</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.3">
@@ -5516,10 +5510,10 @@
         <v>1</v>
       </c>
       <c r="E254" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="F254" s="4">
-        <v>0.5</v>
+        <v>0.48958333333333331</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.3">
@@ -5536,10 +5530,10 @@
         <v>2</v>
       </c>
       <c r="E255" s="4">
-        <v>0.51041666666666663</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F255" s="4">
-        <v>0.75</v>
+        <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.3">
@@ -5556,7 +5550,7 @@
         <v>3</v>
       </c>
       <c r="E256" s="4">
-        <v>0.75277777777777777</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F256" s="4">
         <v>0.96527777777777779</v>
@@ -5576,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="E257" s="4">
-        <v>0.27083333333333331</v>
+        <v>0.25</v>
       </c>
       <c r="F257" s="4">
         <v>0.5</v>
@@ -5596,10 +5590,10 @@
         <v>2</v>
       </c>
       <c r="E258" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F258" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
@@ -5616,10 +5610,10 @@
         <v>3</v>
       </c>
       <c r="E259" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F259" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
@@ -5636,7 +5630,7 @@
         <v>1</v>
       </c>
       <c r="E260" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.27083333333333331</v>
       </c>
       <c r="F260" s="4">
         <v>0.50347222222222221</v>
@@ -5656,10 +5650,10 @@
         <v>2</v>
       </c>
       <c r="E261" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="F261" s="4">
-        <v>0.73958333333333337</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
@@ -5676,7 +5670,7 @@
         <v>3</v>
       </c>
       <c r="E262" s="4">
-        <v>0.76041666666666663</v>
+        <v>0.75347222222222221</v>
       </c>
       <c r="F262" s="4">
         <v>0.96180555555555558</v>
@@ -5696,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="E263" s="4">
-        <v>0.25694444444444442</v>
+        <v>0.25347222222222221</v>
       </c>
       <c r="F263" s="4">
         <v>0.5</v>
@@ -5716,10 +5710,10 @@
         <v>2</v>
       </c>
       <c r="E264" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.50277777777777777</v>
       </c>
       <c r="F264" s="4">
-        <v>0.75694444444444442</v>
+        <v>0.75347222222222221</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
@@ -5736,7 +5730,7 @@
         <v>3</v>
       </c>
       <c r="E265" s="4">
-        <v>0.75</v>
+        <v>0.76041666666666663</v>
       </c>
       <c r="F265" s="4">
         <v>0.94791666666666663</v>
@@ -5759,7 +5753,7 @@
         <v>0.25</v>
       </c>
       <c r="F266" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
@@ -5776,10 +5770,10 @@
         <v>2</v>
       </c>
       <c r="E267" s="4">
-        <v>0.5</v>
+        <v>0.50694444444444442</v>
       </c>
       <c r="F267" s="4">
-        <v>0.75</v>
+        <v>0.75694444444444442</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.3">
@@ -5799,7 +5793,7 @@
         <v>0.75347222222222221</v>
       </c>
       <c r="F268" s="4">
-        <v>0.96180555555555558</v>
+        <v>0.96527777777777779</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
@@ -5819,7 +5813,7 @@
         <v>0.25</v>
       </c>
       <c r="F269" s="4">
-        <v>0.48958333333333331</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
@@ -5836,10 +5830,10 @@
         <v>2</v>
       </c>
       <c r="E270" s="4">
-        <v>0.50277777777777777</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="F270" s="4">
-        <v>0.75347222222222221</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
@@ -5856,10 +5850,10 @@
         <v>3</v>
       </c>
       <c r="E271" s="4">
-        <v>0.77083333333333337</v>
+        <v>0.75694444444444442</v>
       </c>
       <c r="F271" s="4">
-        <v>0.9375</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
   </sheetData>
